--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,62 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +748,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +783,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +818,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +989,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -967,8 +1020,14 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1055,14 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1074,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1105,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1140,14 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1175,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,8 +1210,14 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1136,14 +1227,14 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1154,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1280,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1212,8 +1315,14 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1241,8 +1350,14 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,11 +1417,17 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1490,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1525,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1415,8 +1560,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1595,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1473,42 +1630,54 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1704,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1735,14 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1770,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1805,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,25 +1840,31 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -1678,8 +1875,14 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1910,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1945,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1980,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2085,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1869,20 +2108,26 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2155,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +2190,14 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2224,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2255,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,10 +2270,10 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2023,8 +2290,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2325,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2064,10 +2343,10 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2081,8 +2360,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2395,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2535,14 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2238,10 +2553,10 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -2255,8 +2570,14 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2725,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2399,10 +2746,10 @@
         <v>-100</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
@@ -2413,8 +2760,14 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2865,14 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2509,10 +2880,10 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -2529,8 +2900,14 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2935,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2621,8 +3010,14 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3029,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3060,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3235,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3270,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,19 +3390,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -2966,8 +3425,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3580,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3615,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3650,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3683,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,8 +1017,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1026,8 +1053,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,8 +1145,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1221,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1216,8 +1259,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1227,8 +1273,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1236,8 +1282,8 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1321,8 +1373,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,11 +1484,14 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,8 +1601,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1636,48 +1715,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1792,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1860,14 +1959,14 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1881,8 +1980,11 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2114,20 +2234,23 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2284,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2261,13 +2392,16 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2276,7 +2410,7 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2296,8 +2430,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,13 +2468,16 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -2349,7 +2489,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,13 +2696,16 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -2559,7 +2717,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,8 +2902,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2752,7 +2926,7 @@
         <v>-100</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,13 +3054,16 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -2886,7 +3072,7 @@
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3317,17 +3538,20 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,8 +1083,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1264,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1262,8 +1305,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1276,8 +1322,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1285,8 +1331,8 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1387,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1376,8 +1428,11 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,11 +1548,14 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,8 +1674,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1756,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1718,51 +1797,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,13 +2041,16 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
@@ -1962,14 +2061,14 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -1983,8 +2082,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2433,25 +2567,28 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2471,16 +2608,19 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -2492,7 +2632,7 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,16 +2854,19 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -2720,7 +2878,7 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,8 +3076,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2929,7 +3103,7 @@
         <v>-100</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3240,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3066,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -3075,7 +3261,7 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3322,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3541,17 +3762,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,8 +1307,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1325,8 +1371,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1334,8 +1380,8 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1431,8 +1483,11 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,11 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,8 +1747,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,16 +2140,19 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2064,14 +2163,14 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2357,23 +2477,26 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,31 +2660,34 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2570,28 +2704,31 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2611,8 +2748,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2620,10 +2760,10 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2635,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2866,10 +3024,10 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2881,7 +3039,7 @@
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,13 +3250,16 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E72" s="3">
         <v>-100</v>
@@ -3106,7 +3280,7 @@
         <v>-100</v>
       </c>
       <c r="K72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,19 +3426,22 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -3264,7 +3450,7 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,17 +3986,20 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,8 +1142,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1349,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,8 +1419,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1383,8 +1428,8 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1490,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1486,8 +1537,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,31 +1631,34 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1615,11 +1675,14 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1819,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1913,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,19 +2238,22 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2166,14 +2264,14 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2480,23 +2599,26 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,22 +2808,22 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2707,8 +2840,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2718,20 +2854,20 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>100</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,10 +2902,10 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2778,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3169,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3027,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -3042,7 +3199,7 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,7 +3435,7 @@
         <v>-200</v>
       </c>
       <c r="E72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F72" s="3">
         <v>-100</v>
@@ -3283,7 +3456,7 @@
         <v>-100</v>
       </c>
       <c r="L72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3611,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,13 +3623,13 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -3453,7 +3638,7 @@
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3705,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +3825,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3989,17 +4209,20 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1145,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,16 +1292,19 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1422,8 +1468,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1431,8 +1477,8 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1592,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,8 +1721,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1678,11 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2252,11 +2351,11 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2267,14 +2366,14 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2602,23 +2722,26 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,22 +2945,22 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2857,20 +2994,20 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2905,10 +3045,10 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -2920,7 +3060,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3187,10 +3345,10 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -3202,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3438,7 +3612,7 @@
         <v>-200</v>
       </c>
       <c r="F72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G72" s="3">
         <v>-100</v>
@@ -3459,7 +3633,7 @@
         <v>-100</v>
       </c>
       <c r="M72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3626,13 +3812,13 @@
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -3641,7 +3827,7 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,13 +4024,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4212,17 +4433,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1471,8 +1517,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1480,8 +1526,8 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,8 +1785,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -1742,11 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2354,11 +2453,11 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2369,14 +2468,14 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2725,23 +2845,26 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,22 +3082,22 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,13 +3114,16 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2997,20 +3134,20 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3048,10 +3188,10 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3063,7 +3203,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3348,10 +3506,10 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -3363,7 +3521,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3615,7 +3789,7 @@
         <v>-200</v>
       </c>
       <c r="G72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H72" s="3">
         <v>-100</v>
@@ -3636,7 +3810,7 @@
         <v>-100</v>
       </c>
       <c r="N72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3815,13 +4001,13 @@
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -3830,7 +4016,7 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4436,17 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +802,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1203,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1258,14 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1317,14 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1399,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,11 +1419,11 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1385,8 +1458,14 @@
       <c r="S21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1517,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1576,14 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1520,20 +1611,20 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1694,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1753,14 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1812,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,11 +1909,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -1806,11 +1927,17 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2107,14 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2166,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2225,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2284,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2398,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2453,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2456,14 +2653,14 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2471,17 +2668,17 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2492,8 +2689,14 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2748,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2807,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2848,23 +3087,29 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3161,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3220,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3270,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,13 +3325,19 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3085,25 +3352,25 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3117,19 +3384,25 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3137,24 +3410,24 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -3170,13 +3443,19 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -3191,13 +3470,13 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3206,10 +3485,10 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3223,8 +3502,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3797,19 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -3509,13 +3824,13 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3524,10 +3839,10 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3541,8 +3856,14 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,13 +4115,19 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E72" s="3">
         <v>-200</v>
@@ -3792,10 +4139,10 @@
         <v>-200</v>
       </c>
       <c r="H72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
@@ -3813,10 +4160,10 @@
         <v>-100</v>
       </c>
       <c r="O72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,13 +4351,19 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -4004,25 +4375,25 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -4039,8 +4410,14 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4469,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4592,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4969,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4660,17 +5101,23 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5546,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,8 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1617,8 +1663,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1626,8 +1672,8 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1759,8 +1811,11 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1915,8 +1976,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -1933,11 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2659,11 +2758,11 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2674,14 +2773,14 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3093,23 +3213,26 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,7 +3474,7 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3358,22 +3492,22 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3401,11 +3538,11 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3416,20 +3553,20 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,7 +3598,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -3476,10 +3616,10 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3491,7 +3631,7 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,7 +3970,7 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -3830,10 +3988,10 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3845,7 +4003,7 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4130,7 +4304,7 @@
         <v>-300</v>
       </c>
       <c r="E72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F72" s="3">
         <v>-200</v>
@@ -4145,7 +4319,7 @@
         <v>-200</v>
       </c>
       <c r="J72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
@@ -4166,7 +4340,7 @@
         <v>-100</v>
       </c>
       <c r="Q72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4366,7 +4552,7 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -4381,13 +4567,13 @@
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -4396,7 +4582,7 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5107,17 +5328,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1502,8 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1666,8 +1712,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1675,8 +1721,8 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1979,8 +2040,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -1997,11 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,37 +2831,40 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2776,14 +2875,14 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3216,23 +3336,26 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,7 +3611,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3495,22 +3629,22 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3541,11 +3678,11 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3556,20 +3693,20 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,7 +3741,7 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -3619,10 +3759,10 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3634,7 +3774,7 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3973,7 +4131,7 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -3991,10 +4149,10 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -4006,7 +4164,7 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4307,7 +4481,7 @@
         <v>-300</v>
       </c>
       <c r="F72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
@@ -4322,7 +4496,7 @@
         <v>-200</v>
       </c>
       <c r="K72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-100</v>
@@ -4343,7 +4517,7 @@
         <v>-100</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4555,7 +4741,7 @@
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -4570,13 +4756,13 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -4585,7 +4771,7 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5331,17 +5552,20 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>ARGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,16 +829,22 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -887,16 +900,22 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1140,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1310,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,8 +1377,14 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1448,14 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1546,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,11 +1578,11 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1544,8 +1617,14 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1688,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1674,13 +1759,19 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1715,20 +1806,20 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1901,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1869,8 +1972,14 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,8 +2043,14 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2043,11 +2164,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
@@ -2061,11 +2182,17 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2398,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2324,8 +2469,14 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2540,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2454,78 +2611,90 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2745,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2812,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2954,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3025,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2845,23 +3042,23 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2869,8 +3066,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2878,17 +3075,17 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -2899,8 +3096,14 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3167,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3238,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3339,23 +3578,29 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3664,14 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3484,8 +3735,14 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3793,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,25 +3860,31 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3632,25 +3899,25 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3664,13 +3931,19 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3681,14 +3954,14 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3696,24 +3969,24 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
@@ -3729,25 +4002,31 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -3762,13 +4041,13 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3777,10 +4056,10 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -3794,8 +4073,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4144,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,25 +4428,31 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -4152,13 +4467,13 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -4167,10 +4482,10 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -4184,8 +4499,14 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,13 +4810,19 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E72" s="3">
         <v>-300</v>
@@ -4484,10 +4831,10 @@
         <v>-300</v>
       </c>
       <c r="G72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -4499,10 +4846,10 @@
         <v>-200</v>
       </c>
       <c r="L72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-100</v>
@@ -4520,10 +4867,10 @@
         <v>-100</v>
       </c>
       <c r="S72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
@@ -4534,8 +4881,14 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,13 +5094,19 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -4744,10 +5115,10 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -4759,25 +5130,25 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4794,8 +5165,14 @@
       <c r="W76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5236,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4994,8 +5383,14 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5836,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5907,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5555,17 +5996,23 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6218,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6529,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6600,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6671,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
